--- a/delete_modifier.xlsx
+++ b/delete_modifier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\Desktop\Excel pattern modifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59EFF2C3-664B-4B31-B0DB-B193C49FA9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5C70C5-2303-4345-86CF-05CDE985FA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23220" yWindow="2970" windowWidth="18840" windowHeight="9075" xr2:uid="{29A36073-9CCC-406E-B84F-90E6D67E205A}"/>
+    <workbookView xWindow="23295" yWindow="4890" windowWidth="21780" windowHeight="7140" xr2:uid="{29A36073-9CCC-406E-B84F-90E6D67E205A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>114</v>
       </c>
       <c r="B2">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
